--- a/teaching/traditional_assets/database/data/qatar/qatar_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_entertainment.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.121</v>
+        <v>-0.269</v>
       </c>
       <c r="E2">
-        <v>-0.08259999999999999</v>
+        <v>-0.195</v>
       </c>
       <c r="G2">
-        <v>-0.979381443298969</v>
+        <v>-2.292134831460674</v>
       </c>
       <c r="H2">
-        <v>-0.979381443298969</v>
+        <v>-2.292134831460674</v>
       </c>
       <c r="I2">
-        <v>-1.634020618556701</v>
+        <v>-3.707865168539326</v>
       </c>
       <c r="J2">
-        <v>-1.634020618556701</v>
+        <v>-3.707865168539326</v>
       </c>
       <c r="K2">
-        <v>2.12</v>
+        <v>1.26</v>
       </c>
       <c r="L2">
-        <v>1.092783505154639</v>
+        <v>1.415730337078652</v>
       </c>
       <c r="M2">
-        <v>2.78</v>
+        <v>1.61</v>
       </c>
       <c r="N2">
-        <v>0.0731578947368421</v>
+        <v>0.02336719883889695</v>
       </c>
       <c r="O2">
-        <v>1.311320754716981</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="P2">
-        <v>2.78</v>
+        <v>1.61</v>
       </c>
       <c r="Q2">
-        <v>0.0731578947368421</v>
+        <v>0.02336719883889695</v>
       </c>
       <c r="R2">
-        <v>1.311320754716981</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>9.5</v>
+        <v>6.24</v>
       </c>
       <c r="V2">
-        <v>0.25</v>
+        <v>0.09056603773584905</v>
       </c>
       <c r="W2">
-        <v>0.05549738219895288</v>
+        <v>0.03239074550128535</v>
       </c>
       <c r="X2">
-        <v>0.0976960659643242</v>
+        <v>0.06782803348748273</v>
       </c>
       <c r="Y2">
-        <v>-0.04219868376537132</v>
+        <v>-0.03543728798619739</v>
       </c>
       <c r="Z2">
-        <v>0.05576315033055475</v>
+        <v>0.02470163752428532</v>
       </c>
       <c r="AA2">
-        <v>-0.09111813739580339</v>
+        <v>-0.09159034138218151</v>
       </c>
       <c r="AB2">
-        <v>0.08893910019450887</v>
+        <v>0.06534726665539836</v>
       </c>
       <c r="AC2">
-        <v>-0.1800572375903123</v>
+        <v>-0.1569376080375799</v>
       </c>
       <c r="AD2">
-        <v>6.63</v>
+        <v>4.58</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.63</v>
+        <v>4.58</v>
       </c>
       <c r="AG2">
-        <v>-2.87</v>
+        <v>-1.66</v>
       </c>
       <c r="AH2">
-        <v>0.148554783777728</v>
+        <v>0.06232988568317909</v>
       </c>
       <c r="AI2">
-        <v>0.1456182736657149</v>
+        <v>0.108325449385052</v>
       </c>
       <c r="AJ2">
-        <v>-0.08169655565044122</v>
+        <v>-0.02468768590124926</v>
       </c>
       <c r="AK2">
-        <v>-0.07965584235359423</v>
+        <v>-0.04605993340732519</v>
       </c>
       <c r="AL2">
-        <v>0.33</v>
+        <v>0.378</v>
       </c>
       <c r="AM2">
-        <v>-0.005000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="AN2">
-        <v>-3.331658291457286</v>
+        <v>-2.301507537688442</v>
       </c>
       <c r="AO2">
-        <v>-9.606060606060606</v>
+        <v>-8.730158730158729</v>
       </c>
       <c r="AP2">
-        <v>1.442211055276382</v>
+        <v>0.8341708542713568</v>
       </c>
       <c r="AQ2">
-        <v>633.9999999999994</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.121</v>
+        <v>-0.269</v>
       </c>
       <c r="E3">
-        <v>-0.08259999999999999</v>
+        <v>-0.195</v>
       </c>
       <c r="G3">
-        <v>-0.979381443298969</v>
+        <v>-2.292134831460674</v>
       </c>
       <c r="H3">
-        <v>-0.979381443298969</v>
+        <v>-2.292134831460674</v>
       </c>
       <c r="I3">
-        <v>-1.634020618556701</v>
+        <v>-3.707865168539326</v>
       </c>
       <c r="J3">
-        <v>-1.634020618556701</v>
+        <v>-3.707865168539326</v>
       </c>
       <c r="K3">
-        <v>2.12</v>
+        <v>1.26</v>
       </c>
       <c r="L3">
-        <v>1.092783505154639</v>
+        <v>1.415730337078652</v>
       </c>
       <c r="M3">
-        <v>2.78</v>
+        <v>1.61</v>
       </c>
       <c r="N3">
-        <v>0.0731578947368421</v>
+        <v>0.02336719883889695</v>
       </c>
       <c r="O3">
-        <v>1.311320754716981</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="P3">
-        <v>2.78</v>
+        <v>1.61</v>
       </c>
       <c r="Q3">
-        <v>0.0731578947368421</v>
+        <v>0.02336719883889695</v>
       </c>
       <c r="R3">
-        <v>1.311320754716981</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>9.5</v>
+        <v>6.24</v>
       </c>
       <c r="V3">
-        <v>0.25</v>
+        <v>0.09056603773584905</v>
       </c>
       <c r="W3">
-        <v>0.05549738219895288</v>
+        <v>0.03239074550128535</v>
       </c>
       <c r="X3">
-        <v>0.0976960659643242</v>
+        <v>0.06782803348748273</v>
       </c>
       <c r="Y3">
-        <v>-0.04219868376537132</v>
+        <v>-0.03543728798619739</v>
       </c>
       <c r="Z3">
-        <v>0.05576315033055475</v>
+        <v>0.02470163752428532</v>
       </c>
       <c r="AA3">
-        <v>-0.09111813739580339</v>
+        <v>-0.09159034138218151</v>
       </c>
       <c r="AB3">
-        <v>0.08893910019450887</v>
+        <v>0.06534726665539836</v>
       </c>
       <c r="AC3">
-        <v>-0.1800572375903123</v>
+        <v>-0.1569376080375799</v>
       </c>
       <c r="AD3">
-        <v>6.63</v>
+        <v>4.58</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.63</v>
+        <v>4.58</v>
       </c>
       <c r="AG3">
-        <v>-2.87</v>
+        <v>-1.66</v>
       </c>
       <c r="AH3">
-        <v>0.148554783777728</v>
+        <v>0.06232988568317909</v>
       </c>
       <c r="AI3">
-        <v>0.1456182736657149</v>
+        <v>0.108325449385052</v>
       </c>
       <c r="AJ3">
-        <v>-0.08169655565044122</v>
+        <v>-0.02468768590124926</v>
       </c>
       <c r="AK3">
-        <v>-0.07965584235359423</v>
+        <v>-0.04605993340732519</v>
       </c>
       <c r="AL3">
-        <v>0.33</v>
+        <v>0.378</v>
       </c>
       <c r="AM3">
-        <v>-0.005000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="AN3">
-        <v>-3.331658291457286</v>
+        <v>-2.301507537688442</v>
       </c>
       <c r="AO3">
-        <v>-9.606060606060606</v>
+        <v>-8.730158730158729</v>
       </c>
       <c r="AP3">
-        <v>1.442211055276382</v>
+        <v>0.8341708542713568</v>
       </c>
       <c r="AQ3">
-        <v>633.9999999999994</v>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
